--- a/Book0.xlsx
+++ b/Book0.xlsx
@@ -230,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -270,13 +270,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -866,7 +872,7 @@
               <c:idx val="0"/>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
@@ -875,7 +881,7 @@
               <c:idx val="1"/>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
@@ -884,14 +890,14 @@
               <c:idx val="2"/>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1043,11 +1049,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="77943533"/>
-        <c:axId val="70357399"/>
+        <c:axId val="24646256"/>
+        <c:axId val="73865892"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77943533"/>
+        <c:axId val="24646256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,14 +1089,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70357399"/>
+        <c:crossAx val="73865892"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70357399"/>
+        <c:axId val="73865892"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1142,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77943533"/>
+        <c:crossAx val="24646256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1248,11 +1254,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="46677570"/>
-        <c:axId val="28201374"/>
+        <c:axId val="92509802"/>
+        <c:axId val="91299384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46677570"/>
+        <c:axId val="92509802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,14 +1294,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28201374"/>
+        <c:crossAx val="91299384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28201374"/>
+        <c:axId val="91299384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1347,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46677570"/>
+        <c:crossAx val="92509802"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1403,6 +1409,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -1475,11 +1553,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="3644534"/>
-        <c:axId val="79907277"/>
+        <c:axId val="82139226"/>
+        <c:axId val="35493723"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3644534"/>
+        <c:axId val="82139226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,14 +1593,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79907277"/>
+        <c:crossAx val="35493723"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79907277"/>
+        <c:axId val="35493723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -1570,7 +1648,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3644534"/>
+        <c:crossAx val="82139226"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1740,11 +1818,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="55557374"/>
-        <c:axId val="79448393"/>
+        <c:axId val="41066312"/>
+        <c:axId val="75769012"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55557374"/>
+        <c:axId val="41066312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,12 +1858,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79448393"/>
+        <c:crossAx val="75769012"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79448393"/>
+        <c:axId val="75769012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55557374"/>
+        <c:crossAx val="41066312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1949,11 +2027,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="28804068"/>
-        <c:axId val="83455843"/>
+        <c:axId val="35312775"/>
+        <c:axId val="31688153"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="28804068"/>
+        <c:axId val="35312775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,14 +2067,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83455843"/>
+        <c:crossAx val="31688153"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83455843"/>
+        <c:axId val="31688153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +2120,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28804068"/>
+        <c:crossAx val="35312775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2090,9 +2168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190080</xdr:colOff>
+      <xdr:colOff>189720</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2101,7 +2179,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2503080" y="457200"/>
-        <a:ext cx="3782880" cy="1790280"/>
+        <a:ext cx="3782520" cy="1789920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2120,9 +2198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2131,7 +2209,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="464760" y="2618280"/>
-        <a:ext cx="3782880" cy="1790280"/>
+        <a:ext cx="3782520" cy="1789920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2144,15 +2222,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>383760</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>681120</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2160,8 +2238,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4763520" y="2772360"/>
-        <a:ext cx="3782880" cy="1790280"/>
+        <a:off x="4763160" y="2772000"/>
+        <a:ext cx="4852080" cy="3725280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2185,9 +2263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>357480</xdr:colOff>
+      <xdr:colOff>357120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2196,7 +2274,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1885680" y="213480"/>
-        <a:ext cx="4567680" cy="2201760"/>
+        <a:ext cx="4567320" cy="2201400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2220,9 +2298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2231,7 +2309,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1878120" y="182880"/>
-        <a:ext cx="4476240" cy="2064600"/>
+        <a:ext cx="4475880" cy="2064240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2255,9 +2333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2266,7 +2344,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1992600" y="289440"/>
-        <a:ext cx="5790600" cy="2742840"/>
+        <a:ext cx="5790240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2290,9 +2368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
+      <xdr:colOff>48600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2301,7 +2379,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1878120" y="266760"/>
-        <a:ext cx="5790600" cy="2742840"/>
+        <a:ext cx="5790240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2325,9 +2403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2336,7 +2414,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1832400" y="259200"/>
-        <a:ext cx="5790600" cy="2742840"/>
+        <a:ext cx="5790240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2357,15 +2435,15 @@
   <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="O37" activeCellId="0" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2484,7 +2562,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2614,7 +2692,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2743,7 +2821,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2890,7 +2968,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3042,7 +3120,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
